--- a/src/test/resources/readExcel.xlsx
+++ b/src/test/resources/readExcel.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="5">
   <si>
     <t>字符串标题</t>
-  </si>
-  <si>
-    <t>日期标题</t>
   </si>
   <si>
     <t>数字标题</t>
@@ -43,8 +40,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1190,7 +1187,7 @@
   <dimension ref="A1:C410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1204,27 +1201,27 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43831.042974537</v>
-      </c>
-      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43831.042974537</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>43831.042974537</v>
@@ -1235,7 +1232,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>43831.042974537</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>43831.042974537</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>43831.042974537</v>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>43831.042974537</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>43831.042974537</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>43831.042974537</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>43831.042974537</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>43831.042974537</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
         <v>43831.042974537</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>43831.042974537</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
         <v>43831.042974537</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
         <v>43831.042974537</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
         <v>43831.042974537</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
         <v>43831.042974537</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3">
         <v>43831.042974537</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>43831.042974537</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
         <v>43831.042974537</v>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3">
         <v>43831.042974537</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3">
         <v>43831.042974537</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3">
         <v>43831.042974537</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3">
         <v>43831.042974537</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3">
         <v>43831.042974537</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3">
         <v>43831.042974537</v>
@@ -1488,7 +1485,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3">
         <v>43831.042974537</v>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3">
         <v>43831.042974537</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>43831.042974537</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3">
         <v>43831.042974537</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3">
         <v>43831.042974537</v>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3">
         <v>43831.042974537</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3">
         <v>43831.042974537</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3">
         <v>43831.042974537</v>
@@ -1576,7 +1573,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3">
         <v>43831.042974537</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3">
         <v>43831.042974537</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="3">
         <v>43831.042974537</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="3">
         <v>43831.042974537</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3">
         <v>43831.042974537</v>
@@ -1631,7 +1628,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3">
         <v>43831.042974537</v>
@@ -1642,7 +1639,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3">
         <v>43831.042974537</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="3">
         <v>43831.042974537</v>
@@ -1664,7 +1661,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3">
         <v>43831.042974537</v>
@@ -1675,7 +1672,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3">
         <v>43831.042974537</v>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3">
         <v>43831.042974537</v>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3">
         <v>43831.042974537</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="3">
         <v>43831.042974537</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3">
         <v>43831.042974537</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="3">
         <v>43831.042974537</v>
@@ -1741,7 +1738,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="3">
         <v>43831.042974537</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3">
         <v>43831.042974537</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3">
         <v>43831.042974537</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="3">
         <v>43831.042974537</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="3">
         <v>43831.042974537</v>
@@ -1796,7 +1793,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="3">
         <v>43831.042974537</v>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="3">
         <v>43831.042974537</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="3">
         <v>43831.042974537</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3">
         <v>43831.042974537</v>
@@ -1840,7 +1837,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="3">
         <v>43831.042974537</v>
@@ -1851,7 +1848,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="3">
         <v>43831.042974537</v>
@@ -1862,7 +1859,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3">
         <v>43831.042974537</v>
@@ -1873,7 +1870,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="3">
         <v>43831.042974537</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="3">
         <v>43831.042974537</v>
@@ -1895,7 +1892,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="3">
         <v>43831.042974537</v>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="3">
         <v>43831.042974537</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="3">
         <v>43831.042974537</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" s="3">
         <v>43831.042974537</v>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" s="3">
         <v>43831.042974537</v>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" s="3">
         <v>43831.042974537</v>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="3">
         <v>43831.042974537</v>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="3">
         <v>43831.042974537</v>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3">
         <v>43831.042974537</v>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="3">
         <v>43831.042974537</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="3">
         <v>43831.042974537</v>
@@ -2016,7 +2013,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="3">
         <v>43831.042974537</v>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="3">
         <v>43831.042974537</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="3">
         <v>43831.042974537</v>
@@ -2049,7 +2046,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="3">
         <v>43831.042974537</v>
@@ -2060,7 +2057,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="3">
         <v>43831.042974537</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="3">
         <v>43831.042974537</v>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="3">
         <v>43831.042974537</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="3">
         <v>43831.042974537</v>
@@ -2104,7 +2101,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="3">
         <v>43831.042974537</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="3">
         <v>43831.042974537</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="3">
         <v>43831.042974537</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="3">
         <v>43831.042974537</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="3">
         <v>43831.042974537</v>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="3">
         <v>43831.042974537</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="3">
         <v>43831.042974537</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="3">
         <v>43831.042974537</v>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="3">
         <v>43831.042974537</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="3">
         <v>43831.042974537</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="3">
         <v>43831.042974537</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="3">
         <v>43831.042974537</v>
@@ -2236,7 +2233,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="3">
         <v>43831.042974537</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="3">
         <v>43831.042974537</v>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="3">
         <v>43831.042974537</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="3">
         <v>43831.042974537</v>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="3">
         <v>43831.042974537</v>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="3">
         <v>43831.042974537</v>
@@ -2302,7 +2299,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="3">
         <v>43831.042974537</v>
@@ -2313,7 +2310,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="3">
         <v>43831.042974537</v>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="3">
         <v>43831.042974537</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="3">
         <v>43831.042974537</v>
@@ -2346,7 +2343,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" s="3">
         <v>43831.042974537</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="3">
         <v>43831.042974537</v>
@@ -2368,7 +2365,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="3">
         <v>43831.042974537</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="3">
         <v>43831.042974537</v>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="3">
         <v>43831.042974537</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="3">
         <v>43831.042974537</v>
@@ -2412,7 +2409,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" s="3">
         <v>43831.042974537</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="3">
         <v>43831.042974537</v>
@@ -2434,7 +2431,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="3">
         <v>43831.042974537</v>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="3">
         <v>43831.042974537</v>
@@ -2456,7 +2453,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="3">
         <v>43831.042974537</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="3">
         <v>43831.042974537</v>
@@ -2478,7 +2475,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="3">
         <v>43831.042974537</v>
@@ -2489,7 +2486,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="3">
         <v>43831.042974537</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="3">
         <v>43831.042974537</v>
@@ -2511,7 +2508,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="3">
         <v>43831.042974537</v>
@@ -2522,7 +2519,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="3">
         <v>43831.042974537</v>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="3">
         <v>43831.042974537</v>
@@ -2544,7 +2541,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="3">
         <v>43831.042974537</v>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="3">
         <v>43831.042974537</v>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="3">
         <v>43831.042974537</v>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="3">
         <v>43831.042974537</v>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="3">
         <v>43831.042974537</v>
@@ -2599,7 +2596,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="3">
         <v>43831.042974537</v>
@@ -2610,7 +2607,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="3">
         <v>43831.042974537</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="3">
         <v>43831.042974537</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="3">
         <v>43831.042974537</v>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="3">
         <v>43831.042974537</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="3">
         <v>43831.042974537</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="3">
         <v>43831.042974537</v>
@@ -2676,7 +2673,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" s="3">
         <v>43831.042974537</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" s="3">
         <v>43831.042974537</v>
@@ -2698,7 +2695,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="3">
         <v>43831.042974537</v>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" s="3">
         <v>43831.042974537</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="3">
         <v>43831.042974537</v>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" s="3">
         <v>43831.042974537</v>
@@ -2742,7 +2739,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" s="3">
         <v>43831.042974537</v>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" s="3">
         <v>43831.042974537</v>
@@ -2764,7 +2761,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" s="3">
         <v>43831.042974537</v>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="3">
         <v>43831.042974537</v>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" s="3">
         <v>43831.042974537</v>
@@ -2797,7 +2794,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" s="3">
         <v>43831.042974537</v>
@@ -2808,7 +2805,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" s="3">
         <v>43831.042974537</v>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="3">
         <v>43831.042974537</v>
@@ -2830,7 +2827,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" s="3">
         <v>43831.042974537</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" s="3">
         <v>43831.042974537</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" s="3">
         <v>43831.042974537</v>
@@ -2863,7 +2860,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" s="3">
         <v>43831.042974537</v>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" s="3">
         <v>43831.042974537</v>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" s="3">
         <v>43831.042974537</v>
@@ -2896,7 +2893,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" s="3">
         <v>43831.042974537</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" s="3">
         <v>43831.042974537</v>
@@ -2918,7 +2915,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" s="3">
         <v>43831.042974537</v>
@@ -2929,7 +2926,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" s="3">
         <v>43831.042974537</v>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" s="3">
         <v>43831.042974537</v>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" s="3">
         <v>43831.042974537</v>
@@ -2962,7 +2959,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" s="3">
         <v>43831.042974537</v>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" s="3">
         <v>43831.042974537</v>
@@ -2984,7 +2981,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" s="3">
         <v>43831.042974537</v>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" s="3">
         <v>43831.042974537</v>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" s="3">
         <v>43831.042974537</v>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" s="3">
         <v>43831.042974537</v>
@@ -3028,7 +3025,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" s="3">
         <v>43831.042974537</v>
@@ -3039,7 +3036,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" s="3">
         <v>43831.042974537</v>
@@ -3050,7 +3047,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" s="3">
         <v>43831.042974537</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" s="3">
         <v>43831.042974537</v>
@@ -3072,7 +3069,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171" s="3">
         <v>43831.042974537</v>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" s="3">
         <v>43831.042974537</v>
@@ -3094,7 +3091,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" s="3">
         <v>43831.042974537</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" s="3">
         <v>43831.042974537</v>
@@ -3116,7 +3113,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="3">
         <v>43831.042974537</v>
@@ -3127,7 +3124,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" s="3">
         <v>43831.042974537</v>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B177" s="3">
         <v>43831.042974537</v>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B178" s="3">
         <v>43831.042974537</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179" s="3">
         <v>43831.042974537</v>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" s="3">
         <v>43831.042974537</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B181" s="3">
         <v>43831.042974537</v>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" s="3">
         <v>43831.042974537</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" s="3">
         <v>43831.042974537</v>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" s="3">
         <v>43831.042974537</v>
@@ -3226,7 +3223,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" s="3">
         <v>43831.042974537</v>
@@ -3237,7 +3234,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B186" s="3">
         <v>43831.042974537</v>
@@ -3248,7 +3245,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B187" s="3">
         <v>43831.042974537</v>
@@ -3259,7 +3256,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" s="3">
         <v>43831.042974537</v>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B189" s="3">
         <v>43831.042974537</v>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B190" s="3">
         <v>43831.042974537</v>
@@ -3292,7 +3289,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" s="3">
         <v>43831.042974537</v>
@@ -3303,7 +3300,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B192" s="3">
         <v>43831.042974537</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B193" s="3">
         <v>43831.042974537</v>
@@ -3325,7 +3322,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B194" s="3">
         <v>43831.042974537</v>
@@ -3336,7 +3333,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B195" s="3">
         <v>43831.042974537</v>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B196" s="3">
         <v>43831.042974537</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B197" s="3">
         <v>43831.042974537</v>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" s="3">
         <v>43831.042974537</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B199" s="3">
         <v>43831.042974537</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" s="3">
         <v>43831.042974537</v>
@@ -3402,7 +3399,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B201" s="3">
         <v>43831.042974537</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B202" s="3">
         <v>43831.042974537</v>
@@ -3424,7 +3421,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B203" s="3">
         <v>43831.042974537</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B204" s="3">
         <v>43831.042974537</v>
@@ -3446,7 +3443,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B205" s="3">
         <v>43831.042974537</v>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B206" s="3">
         <v>43831.042974537</v>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B207" s="3">
         <v>43831.042974537</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B208" s="3">
         <v>43831.042974537</v>
@@ -3490,7 +3487,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B209" s="3">
         <v>43831.042974537</v>
@@ -3501,7 +3498,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B210" s="3">
         <v>43831.042974537</v>
@@ -3512,7 +3509,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B211" s="3">
         <v>43831.042974537</v>
@@ -3523,7 +3520,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B212" s="3">
         <v>43831.042974537</v>
@@ -3534,7 +3531,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B213" s="3">
         <v>43831.042974537</v>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B214" s="3">
         <v>43831.042974537</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B215" s="3">
         <v>43831.042974537</v>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B216" s="3">
         <v>43831.042974537</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B217" s="3">
         <v>43831.042974537</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B218" s="3">
         <v>43831.042974537</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B219" s="3">
         <v>43831.042974537</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B220" s="3">
         <v>43831.042974537</v>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B221" s="3">
         <v>43831.042974537</v>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B222" s="3">
         <v>43831.042974537</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B223" s="3">
         <v>43831.042974537</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B224" s="3">
         <v>43831.042974537</v>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B225" s="3">
         <v>43831.042974537</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B226" s="3">
         <v>43831.042974537</v>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B227" s="3">
         <v>43831.042974537</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B228" s="3">
         <v>43831.042974537</v>
@@ -3710,7 +3707,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B229" s="3">
         <v>43831.042974537</v>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B230" s="3">
         <v>43831.042974537</v>
@@ -3732,7 +3729,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B231" s="3">
         <v>43831.042974537</v>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B232" s="3">
         <v>43831.042974537</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B233" s="3">
         <v>43831.042974537</v>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B234" s="3">
         <v>43831.042974537</v>
@@ -3776,7 +3773,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B235" s="3">
         <v>43831.042974537</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B236" s="3">
         <v>43831.042974537</v>
@@ -3798,7 +3795,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B237" s="3">
         <v>43831.042974537</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B238" s="3">
         <v>43831.042974537</v>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B239" s="3">
         <v>43831.042974537</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B240" s="3">
         <v>43831.042974537</v>
@@ -3842,7 +3839,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B241" s="3">
         <v>43831.042974537</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B242" s="3">
         <v>43831.042974537</v>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B243" s="3">
         <v>43831.042974537</v>
@@ -3875,7 +3872,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B244" s="3">
         <v>43831.042974537</v>
@@ -3886,7 +3883,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B245" s="3">
         <v>43831.042974537</v>
@@ -3897,7 +3894,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B246" s="3">
         <v>43831.042974537</v>
@@ -3908,7 +3905,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B247" s="3">
         <v>43831.042974537</v>
@@ -3919,7 +3916,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B248" s="3">
         <v>43831.042974537</v>
@@ -3930,7 +3927,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" s="3">
         <v>43831.042974537</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B250" s="3">
         <v>43831.042974537</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B251" s="3">
         <v>43831.042974537</v>
@@ -3963,7 +3960,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="3">
         <v>43831.042974537</v>
@@ -3974,7 +3971,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B253" s="3">
         <v>43831.042974537</v>
@@ -3985,7 +3982,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" s="3">
         <v>43831.042974537</v>
@@ -3996,7 +3993,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B255" s="3">
         <v>43831.042974537</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B256" s="3">
         <v>43831.042974537</v>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B257" s="3">
         <v>43831.042974537</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" s="3">
         <v>43831.042974537</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B259" s="3">
         <v>43831.042974537</v>
@@ -4051,7 +4048,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" s="3">
         <v>43831.042974537</v>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" s="3">
         <v>43831.042974537</v>
@@ -4073,7 +4070,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" s="3">
         <v>43831.042974537</v>
@@ -4084,7 +4081,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B263" s="3">
         <v>43831.042974537</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" s="3">
         <v>43831.042974537</v>
@@ -4106,7 +4103,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" s="3">
         <v>43831.042974537</v>
@@ -4117,7 +4114,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B266" s="3">
         <v>43831.042974537</v>
@@ -4128,7 +4125,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B267" s="3">
         <v>43831.042974537</v>
@@ -4139,7 +4136,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B268" s="3">
         <v>43831.042974537</v>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B269" s="3">
         <v>43831.042974537</v>
@@ -4161,7 +4158,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B270" s="3">
         <v>43831.042974537</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B271" s="3">
         <v>43831.042974537</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272" s="3">
         <v>43831.042974537</v>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B273" s="3">
         <v>43831.042974537</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B274" s="3">
         <v>43831.042974537</v>
@@ -4216,7 +4213,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" s="3">
         <v>43831.042974537</v>
@@ -4227,7 +4224,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B276" s="3">
         <v>43831.042974537</v>
@@ -4238,7 +4235,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B277" s="3">
         <v>43831.042974537</v>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B278" s="3">
         <v>43831.042974537</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="3">
         <v>43831.042974537</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B280" s="3">
         <v>43831.042974537</v>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B281" s="3">
         <v>43831.042974537</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B282" s="3">
         <v>43831.042974537</v>
@@ -4304,7 +4301,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B283" s="3">
         <v>43831.042974537</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B284" s="3">
         <v>43831.042974537</v>
@@ -4326,7 +4323,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" s="3">
         <v>43831.042974537</v>
@@ -4337,7 +4334,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="3">
         <v>43831.042974537</v>
@@ -4348,7 +4345,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B287" s="3">
         <v>43831.042974537</v>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B288" s="3">
         <v>43831.042974537</v>
@@ -4370,7 +4367,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B289" s="3">
         <v>43831.042974537</v>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B290" s="3">
         <v>43831.042974537</v>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B291" s="3">
         <v>43831.042974537</v>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B292" s="3">
         <v>43831.042974537</v>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B293" s="3">
         <v>43831.042974537</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B294" s="3">
         <v>43831.042974537</v>
@@ -4436,7 +4433,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B295" s="3">
         <v>43831.042974537</v>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B296" s="3">
         <v>43831.042974537</v>
@@ -4458,7 +4455,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B297" s="3">
         <v>43831.042974537</v>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B298" s="3">
         <v>43831.042974537</v>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B299" s="3">
         <v>43831.042974537</v>
@@ -4491,7 +4488,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B300" s="3">
         <v>43831.042974537</v>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B301" s="3">
         <v>43831.042974537</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B302" s="3">
         <v>43831.042974537</v>
@@ -4524,7 +4521,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B303" s="3">
         <v>43831.042974537</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B304" s="3">
         <v>43831.042974537</v>
@@ -4546,7 +4543,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B305" s="3">
         <v>43831.042974537</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B306" s="3">
         <v>43831.042974537</v>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B307" s="3">
         <v>43831.042974537</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B308" s="3">
         <v>43831.042974537</v>
@@ -4590,7 +4587,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B309" s="3">
         <v>43831.042974537</v>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B310" s="3">
         <v>43831.042974537</v>
@@ -4612,7 +4609,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B311" s="3">
         <v>43831.042974537</v>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B312" s="3">
         <v>43831.042974537</v>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B313" s="3">
         <v>43831.042974537</v>
@@ -4645,7 +4642,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B314" s="3">
         <v>43831.042974537</v>
@@ -4656,7 +4653,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B315" s="3">
         <v>43831.042974537</v>
@@ -4667,7 +4664,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B316" s="3">
         <v>43831.042974537</v>
@@ -4678,7 +4675,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B317" s="3">
         <v>43831.042974537</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B318" s="3">
         <v>43831.042974537</v>
@@ -4700,7 +4697,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B319" s="3">
         <v>43831.042974537</v>
@@ -4711,7 +4708,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B320" s="3">
         <v>43831.042974537</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B321" s="3">
         <v>43831.042974537</v>
@@ -4733,7 +4730,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B322" s="3">
         <v>43831.042974537</v>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B323" s="3">
         <v>43831.042974537</v>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B324" s="3">
         <v>43831.042974537</v>
@@ -4766,7 +4763,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B325" s="3">
         <v>43831.042974537</v>
@@ -4777,7 +4774,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B326" s="3">
         <v>43831.042974537</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B327" s="3">
         <v>43831.042974537</v>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B328" s="3">
         <v>43831.042974537</v>
@@ -4810,7 +4807,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B329" s="3">
         <v>43831.042974537</v>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B330" s="3">
         <v>43831.042974537</v>
@@ -4832,7 +4829,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B331" s="3">
         <v>43831.042974537</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B332" s="3">
         <v>43831.042974537</v>
@@ -4854,7 +4851,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B333" s="3">
         <v>43831.042974537</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B334" s="3">
         <v>43831.042974537</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B335" s="3">
         <v>43831.042974537</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B336" s="3">
         <v>43831.042974537</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B337" s="3">
         <v>43831.042974537</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B338" s="3">
         <v>43831.042974537</v>
@@ -4920,7 +4917,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B339" s="3">
         <v>43831.042974537</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B340" s="3">
         <v>43831.042974537</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B341" s="3">
         <v>43831.042974537</v>
@@ -4953,7 +4950,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B342" s="3">
         <v>43831.042974537</v>
@@ -4964,7 +4961,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B343" s="3">
         <v>43831.042974537</v>
@@ -4975,7 +4972,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B344" s="3">
         <v>43831.042974537</v>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B345" s="3">
         <v>43831.042974537</v>
@@ -4997,7 +4994,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B346" s="3">
         <v>43831.042974537</v>
@@ -5008,7 +5005,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B347" s="3">
         <v>43831.042974537</v>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B348" s="3">
         <v>43831.042974537</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B349" s="3">
         <v>43831.042974537</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B350" s="3">
         <v>43831.042974537</v>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B351" s="3">
         <v>43831.042974537</v>
@@ -5063,7 +5060,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B352" s="3">
         <v>43831.042974537</v>
@@ -5074,7 +5071,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B353" s="3">
         <v>43831.042974537</v>
@@ -5085,7 +5082,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B354" s="3">
         <v>43831.042974537</v>
@@ -5096,7 +5093,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B355" s="3">
         <v>43831.042974537</v>
@@ -5107,7 +5104,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B356" s="3">
         <v>43831.042974537</v>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B357" s="3">
         <v>43831.042974537</v>
@@ -5129,7 +5126,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B358" s="3">
         <v>43831.042974537</v>
@@ -5140,7 +5137,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B359" s="3">
         <v>43831.042974537</v>
@@ -5151,7 +5148,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B360" s="3">
         <v>43831.042974537</v>
@@ -5162,7 +5159,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B361" s="3">
         <v>43831.042974537</v>
@@ -5173,7 +5170,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B362" s="3">
         <v>43831.042974537</v>
@@ -5184,7 +5181,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B363" s="3">
         <v>43831.042974537</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B364" s="3">
         <v>43831.042974537</v>
@@ -5206,7 +5203,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B365" s="3">
         <v>43831.042974537</v>
@@ -5217,7 +5214,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B366" s="3">
         <v>43831.042974537</v>
@@ -5228,7 +5225,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B367" s="3">
         <v>43831.042974537</v>
@@ -5239,7 +5236,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B368" s="3">
         <v>43831.042974537</v>
@@ -5250,7 +5247,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B369" s="3">
         <v>43831.042974537</v>
@@ -5261,7 +5258,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B370" s="3">
         <v>43831.042974537</v>
@@ -5272,7 +5269,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B371" s="3">
         <v>43831.042974537</v>
@@ -5283,7 +5280,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B372" s="3">
         <v>43831.042974537</v>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B373" s="3">
         <v>43831.042974537</v>
@@ -5305,7 +5302,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B374" s="3">
         <v>43831.042974537</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B375" s="3">
         <v>43831.042974537</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B376" s="3">
         <v>43831.042974537</v>
@@ -5338,7 +5335,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B377" s="3">
         <v>43831.042974537</v>
@@ -5349,7 +5346,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B378" s="3">
         <v>43831.042974537</v>
@@ -5360,7 +5357,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B379" s="3">
         <v>43831.042974537</v>
@@ -5371,7 +5368,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B380" s="3">
         <v>43831.042974537</v>
@@ -5382,7 +5379,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B381" s="3">
         <v>43831.042974537</v>
@@ -5393,7 +5390,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B382" s="3">
         <v>43831.042974537</v>
@@ -5404,7 +5401,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B383" s="3">
         <v>43831.042974537</v>
@@ -5415,7 +5412,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B384" s="3">
         <v>43831.042974537</v>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B385" s="3">
         <v>43831.042974537</v>
@@ -5437,7 +5434,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B386" s="3">
         <v>43831.042974537</v>
@@ -5448,7 +5445,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B387" s="3">
         <v>43831.042974537</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B388" s="3">
         <v>43831.042974537</v>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B389" s="3">
         <v>43831.042974537</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B390" s="3">
         <v>43831.042974537</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B391" s="3">
         <v>43831.042974537</v>
@@ -5503,7 +5500,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B392" s="3">
         <v>43831.042974537</v>
@@ -5514,7 +5511,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B393" s="3">
         <v>43831.042974537</v>
@@ -5525,7 +5522,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B394" s="3">
         <v>43831.042974537</v>
@@ -5536,7 +5533,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B395" s="3">
         <v>43831.042974537</v>
@@ -5547,7 +5544,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B396" s="3">
         <v>43831.042974537</v>
@@ -5558,7 +5555,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B397" s="3">
         <v>43831.042974537</v>
@@ -5569,7 +5566,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B398" s="3">
         <v>43831.042974537</v>
@@ -5580,7 +5577,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B399" s="3">
         <v>43831.042974537</v>
@@ -5591,7 +5588,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B400" s="3">
         <v>43831.042974537</v>
@@ -5602,7 +5599,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B401" s="3">
         <v>43831.042974537</v>
@@ -5613,7 +5610,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B402" s="3">
         <v>43831.042974537</v>
@@ -5624,7 +5621,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B403" s="3">
         <v>43831.042974537</v>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B404" s="3">
         <v>43831.042974537</v>
@@ -5646,7 +5643,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B405" s="3">
         <v>43831.042974537</v>
@@ -5657,7 +5654,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B406" s="3">
         <v>43831.042974537</v>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B407" s="3">
         <v>43831.042974537</v>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B408" s="3">
         <v>43831.042974537</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B409" s="3">
         <v>43831.042974537</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B410" s="3">
         <v>43831.042974537</v>
